--- a/generated_orders/rotpot_orderform.xlsx
+++ b/generated_orders/rotpot_orderform.xlsx
@@ -12151,7 +12151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12192,7 +12192,7 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="H1" t="n">
@@ -12203,7 +12203,7 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>jersey blue man L (34€)</t>
+          <t>jersey dark man L (34€)</t>
         </is>
       </c>
     </row>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -12291,7 +12291,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>snood blue (10€)</t>
+          <t>snood dark (10€)</t>
         </is>
       </c>
     </row>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>blue</t>
+          <t>dark</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -12383,7 +12383,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>jersey_long blue man L (38€)</t>
+          <t>jersey_long dark man L (38€)</t>
         </is>
       </c>
     </row>
@@ -12476,6 +12476,2902 @@
       <c r="J7" t="inlineStr">
         <is>
           <t>short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chris Bierfreund</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Bierfreund</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>34</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chris Bierfreund</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Bierfreund</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>34</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>jersey white man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chris Bierfreund</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Bierfreund</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>black</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>38</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>jersey_long black man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stefanie Kehr</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tank</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Steffi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>tank white woman L (29€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Annika Nolte</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tank</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Annika</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>tank white woman M (29€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Annika Nolte</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Annika</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>22</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Julia Busse</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tank</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>29</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>tank dark woman L (29€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Julia Busse</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>22</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Julia Busse</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>26</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>gloves woman S (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Elena Gugganig</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Elena Gugganig</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Elena</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>26</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>gloves woman M (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Silvia Bussmann</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Silvia</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>34</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>jersey dark woman XL (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Silvia Bussmann</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Silvia</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>34</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>jersey white woman XL (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Silvia Bussmann</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Silvia</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>22</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>short woman XL (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hannes Drobek</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hannes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>38</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>jersey_long dark man L (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hannes Drobek</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hannes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>38</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>jersey_long white man L (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sören Petersen</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sören</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>26</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>gloves man M (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sören Petersen</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Sören</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>26</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>gloves man M (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Stefanie Kehr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Gloves</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Steffi</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>26</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>gloves woman S (26€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Julia Woortmann</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>34</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>jersey dark woman M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Julia Woortmann</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>34</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>jersey white woman M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Julia Woortmann</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>22</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>short woman M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Headband</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Matthis</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>headband (4€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Headband</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Matthis</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>headband (4€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Snood</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Matthis</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>snood white (10€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Matthis Heimberg</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Snood</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Matthis</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>snood dark (10€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>DJ Marco</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DJ Marco</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>34</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>DJ Marco</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>DJ Marco</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>34</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>jersey white man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mama Steffi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Mama Steffi</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>34</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mama Steffi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Mama Steffi</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>34</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>jersey white woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Frederik Timme</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Freddy</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>34</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Frederik Timme</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Freddy</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>34</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>jersey white man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Frederik Timme</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Freddy</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>22</v>
+      </c>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>short multisport L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jean-Michel Biesecker</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Michel</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>34</v>
+      </c>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jean-Michel Biesecker</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Michel</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>34</v>
+      </c>
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>jersey white man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jean-Michel Biesecker</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Michel</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>22</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Benjamin Schäfer</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>34</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>jersey white man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Benjamin Schäfer</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>38</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>jersey_long dark man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Benjamin Schäfer</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Benjamin</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>22</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>short long M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jannes Hedden</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Jannes</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>34</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jannes Hedden</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Jannes</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>38</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>jersey_long dark man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jannes Hedden</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Jannes</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>38</v>
+      </c>
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>jersey_long white man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jannes Hedden</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Jannes</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>22</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Erik Hempel</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>34</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>jersey dark man M (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Erik Hempel</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>38</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>jersey_long white man M (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Erik Hempel</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>22</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Paula Kisse</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>34</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Paula Kisse</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>34</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>jersey white woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Paula Kisse</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>22</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>short woman L (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Paula Kisse</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Kanpaia</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Paula</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>49</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>hoodie_zip woman L (49€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>34</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>jersey dark woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>34</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>jersey white woman L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>38</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>jersey_long dark woman L (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ohiko_LongSleeves</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>38</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>jersey_long white woman L (38€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Snood</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+      <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>snood dark (10€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>22</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Multisport</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>22</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>short multisport M (22€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Eva Nortmann</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Argia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>42</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>hoodie_no_zip woman L (42€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Jan Meyer</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Jan</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>34</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Florian von Malottky</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Flo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>34</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>jersey dark man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Florian von Malottky</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Flo</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>34</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>jersey white man L (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Lucas Böhm</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>34</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>jersey dark man XL (34€)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Lucas Böhm</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Ohiko</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Man</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Lucas</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>34</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>jersey white man XL (34€)</t>
         </is>
       </c>
     </row>

--- a/generated_orders/rotpot_orderform.xlsx
+++ b/generated_orders/rotpot_orderform.xlsx
@@ -12151,7 +12151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12162,7 +12162,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Christina Diercks</t>
+          <t>Zoe Lißner</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -12182,12 +12182,12 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Chrissy</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -12203,14 +12203,14 @@
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>jersey dark man L (34€)</t>
+          <t>jersey dark woman L (34€)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Christina Diercks</t>
+          <t>Zoe Lißner</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -12220,7 +12220,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Woman</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -12230,12 +12230,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chrissy</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -12251,59 +12251,63 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>jersey white man L (34€)</t>
+          <t>jersey white woman L (34€)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Christina Diercks</t>
+          <t>Zoe Lißner</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Snood</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Woman</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Chrissy</t>
+          <t>Zoe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>snood dark (10€)</t>
+          <t>short woman L (22€)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christina Diercks</t>
+          <t>Jean-Michel Biesecker</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kanpaia</t>
+          <t>Ohiko_LongSleeves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -12313,41 +12317,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Chrissy</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
       <c r="H4" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>hoodie_zip man L (49€)</t>
+          <t>jersey_long dark man M (38€)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lennart Zech</t>
+          <t>Jean-Michel Biesecker</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ohiko_LongSleeves</t>
+          <t>Kanpaia</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -12357,45 +12365,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Lennart</t>
+          <t>Michel</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>jersey_long dark man L (38€)</t>
+          <t>hoodie_zip man M (49€)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lennart Zech</t>
+          <t>Jonas Böhm</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ohiko_LongSleeves</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -12410,45 +12414,41 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Lennart</t>
+          <t>Jonas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>jersey_long white man L (38€)</t>
+          <t>tight_korsair_plus man L (45€)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lennart Zech</t>
+          <t>Jonas Sitzmann</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Multisport</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -12458,36 +12458,36 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Lennart</t>
+          <t>Sitzmann</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>short multisport L (22€)</t>
+          <t>tight_korsair_plus man L (45€)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Chris Bierfreund</t>
+          <t>Sören Petersen</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ohiko</t>
+          <t>Ohiko_LongSleeves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -12502,12 +12502,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bierfreund</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -12516,26 +12516,26 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>jersey dark man M (34€)</t>
+          <t>jersey_long dark man M (38€)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chris Bierfreund</t>
+          <t>Sören Petersen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ohiko</t>
+          <t>Ohiko_LongSleeves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12550,12 +12550,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bierfreund</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -12564,26 +12564,26 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>jersey white man M (34€)</t>
+          <t>jersey_long white man M (38€)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chris Bierfreund</t>
+          <t>Sören Petersen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ohiko_LongSleeves</t>
+          <t>Kanpaia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12598,141 +12598,129 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bierfreund</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>black</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>jersey_long black man M (38€)</t>
+          <t>hoodie_zip man M (49€)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stefanie Kehr</t>
+          <t>Sören Petersen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>M</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Steffi</t>
+          <t>Sören</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>tank white woman L (29€)</t>
+          <t>tight_korsair_plus man M (45€)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Annika Nolte</t>
+          <t>Alexander Götz von Olenhusen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tank</t>
+          <t>Gloves</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Annika</t>
+          <t>Götz</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>tank white woman M (29€)</t>
+          <t>gloves man L (26€)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Annika Nolte</t>
+          <t>Alexander Götz von Olenhusen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Multisport</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -12742,177 +12730,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Annika</t>
+          <t>Götz</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>short multisport L (22€)</t>
+          <t>tight_korsair man L (35€)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Julia Busse</t>
+          <t>Daniel Rode</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tank</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Headband</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>DaRock</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>tank dark woman L (29€)</t>
+          <t>headband (4€)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Julia Busse</t>
+          <t>Daniel Rode</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
+          <t>Snood</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>DaRock</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>grey</t>
+        </is>
+      </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>short multisport L (22€)</t>
+          <t>snood white (10€)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Julia Busse</t>
+          <t>Daniel Rode</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gloves</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
+          <t>Snood</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>DaRock</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>gloves woman S (26€)</t>
+          <t>snood dark (10€)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Elena Gugganig</t>
+          <t>Daniel Rode</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Multisport</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -12922,176 +12890,168 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>DaRock</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>short multisport L (22€)</t>
+          <t>tight_korsair man L (35€)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Elena Gugganig</t>
+          <t>Daniel Rode</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>DaRock</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>gloves woman M (26€)</t>
+          <t>tight_korsair man L (35€)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Silvia Bussmann</t>
+          <t>Hannes Drobek</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ohiko</t>
+          <t>Half_Leg</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Silvia</t>
+          <t>Hannes</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>jersey dark woman XL (34€)</t>
+          <t>tight_half man L (22€)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Silvia Bussmann</t>
+          <t>Hannes Drobek</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ohiko</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>XL</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Silvia</t>
+          <t>Hannes</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>jersey white woman XL (34€)</t>
+          <t>tight_korsair_plus man L (45€)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Silvia Bussmann</t>
+          <t>Mama Steffi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Short</t>
+          <t>Ohiko</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -13106,36 +13066,40 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Silvia</t>
+          <t>Mama Steffi</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>dark</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>short woman XL (22€)</t>
+          <t>jersey dark woman XL (34€)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hannes Drobek</t>
+          <t>Marcel Klinge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ohiko_LongSleeves</t>
+          <t>Half_Leg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -13145,45 +13109,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hannes</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>jersey_long dark man L (38€)</t>
+          <t>tight_half man XL (22€)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hannes Drobek</t>
+          <t>Marcel Klinge</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ohiko_LongSleeves</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -13193,45 +13153,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hannes</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>jersey_long white man L (38€)</t>
+          <t>tight_korsair man XL (35€)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sören Petersen</t>
+          <t>Marcel Klinge</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -13241,41 +13197,41 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sören</t>
+          <t>Marcel</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>gloves man M (26€)</t>
+          <t>tight_korsair_plus man XL (45€)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sören Petersen</t>
+          <t>Philipp Uhlich</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -13285,80 +13241,80 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sören</t>
+          <t>Philipp</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>gloves man M (26€)</t>
+          <t>tight_korsair man L (35€)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stefanie Kehr</t>
+          <t>Philipp Uhlich</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Gloves</t>
+          <t>Korsair</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Steffi</t>
+          <t>Philipp</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>gloves woman S (26€)</t>
+          <t>tight_korsair man L (35€)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Julia Woortmann</t>
+          <t>DJ Marco</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -13368,22 +13324,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>DJ Marco</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -13399,19 +13355,19 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>jersey dark woman M (34€)</t>
+          <t>jersey dark man XXL (34€)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Julia Woortmann</t>
+          <t>Paula Kisse</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ohiko</t>
+          <t>Korsair_Plus</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -13421,1957 +13377,29 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Paula</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>jersey white woman M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Julia Woortmann</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Julia</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>22</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>short woman M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Matthis Heimberg</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Headband</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Matthis</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>headband (4€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Matthis Heimberg</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Headband</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Matthis</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>headband (4€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Matthis Heimberg</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Snood</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Matthis</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>snood white (10€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Matthis Heimberg</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Snood</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Matthis</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>snood dark (10€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>DJ Marco</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>DJ Marco</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>34</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>jersey dark man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>DJ Marco</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>DJ Marco</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>34</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>jersey white man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mama Steffi</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Mama Steffi</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>34</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>jersey dark woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Mama Steffi</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Mama Steffi</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>34</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>jersey white woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Frederik Timme</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Freddy</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>34</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>jersey dark man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Frederik Timme</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Freddy</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>34</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>jersey white man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Frederik Timme</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Freddy</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>22</v>
-      </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>short multisport L (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Jean-Michel Biesecker</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Michel</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>34</v>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>jersey dark man M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Jean-Michel Biesecker</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Michel</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>34</v>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>jersey white man M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Jean-Michel Biesecker</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Michel</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>22</v>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>short multisport M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Benjamin Schäfer</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Benjamin</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>34</v>
-      </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>jersey white man M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Benjamin Schäfer</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Benjamin</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>38</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>jersey_long dark man M (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Benjamin Schäfer</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Benjamin</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="n">
-        <v>22</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>short long M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Jannes Hedden</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Jannes</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>34</v>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>jersey dark man M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Jannes Hedden</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Jannes</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>38</v>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>jersey_long dark man M (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Jannes Hedden</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Jannes</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>38</v>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>jersey_long white man M (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Jannes Hedden</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Jannes</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
-        <v>22</v>
-      </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>short multisport M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Erik Hempel</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Erik</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>34</v>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>jersey dark man M (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Erik Hempel</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Erik</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>38</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>jersey_long white man M (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Erik Hempel</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Erik</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="n">
-        <v>22</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>short multisport M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Paula Kisse</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>34</v>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>jersey dark woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Paula Kisse</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>34</v>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>jersey white woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Paula Kisse</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="n">
-        <v>22</v>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>short woman L (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Paula Kisse</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Kanpaia</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Paula</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="n">
-        <v>49</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>hoodie_zip woman L (49€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>34</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>jersey dark woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>34</v>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>jersey white woman L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>38</v>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>jersey_long dark woman L (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Ohiko_LongSleeves</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>38</v>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>jersey_long white woman L (38€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Snood</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>snood dark (10€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>22</v>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>short multisport M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Multisport</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="n">
-        <v>22</v>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>short multisport M (22€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Eva Nortmann</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Argia</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Woman</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>42</v>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>hoodie_no_zip woman L (42€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Jan Meyer</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Jan</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>34</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>jersey dark man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Florian von Malottky</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Flo</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>34</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>jersey dark man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Florian von Malottky</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Flo</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>34</v>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>jersey white man L (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Lucas Böhm</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>dark</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>34</v>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>jersey dark man XL (34€)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Lucas Böhm</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ohiko</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Man</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Lucas</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>grey</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>34</v>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>jersey white man XL (34€)</t>
+          <t>tight_korsair_plus woman S (45€)</t>
         </is>
       </c>
     </row>
